--- a/APSI _Jadwal.xlsx
+++ b/APSI _Jadwal.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartAss\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5FD828-3E48-4404-84B6-3C2E59A5C010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,7 +78,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,12 +163,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -180,6 +180,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,6 +196,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -238,7 +247,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,9 +280,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -306,6 +332,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,468 +524,483 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="B3" sqref="B3:U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="21" width="4.7109375" customWidth="1"/>
+    <col min="4" max="5" width="3.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" customWidth="1"/>
+    <col min="11" max="11" width="3.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3.140625" customWidth="1"/>
+    <col min="13" max="14" width="3.5703125" customWidth="1"/>
+    <col min="15" max="15" width="3.28515625" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3.5703125" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" customWidth="1"/>
+    <col min="19" max="20" width="3.140625" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3">
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>5</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>6</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>7</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <v>8</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <v>9</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <v>10</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <v>11</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <v>12</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="1">
         <v>13</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="1">
         <v>14</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="1">
         <v>15</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="1">
         <v>16</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="1">
         <v>17</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <v>6</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>8</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <v>9</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="6"/>
-      <c r="T13" s="6"/>
-      <c r="U13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="2"/>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>10</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>11</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>12</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>13</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="6"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
     </row>
     <row r="18" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <v>14</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="4"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -956,7 +1014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -968,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/APSI _Jadwal.xlsx
+++ b/APSI _Jadwal.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SmartAss\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5FD828-3E48-4404-84B6-3C2E59A5C010}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -73,13 +67,34 @@
   </si>
   <si>
     <t>Tanggal (April)</t>
+  </si>
+  <si>
+    <t>Room Status is Available</t>
+  </si>
+  <si>
+    <t>Customer Accept Booking</t>
+  </si>
+  <si>
+    <t>Accept Order</t>
+  </si>
+  <si>
+    <t>Reject Order</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,8 +110,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,8 +151,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -153,12 +207,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -186,8 +259,24 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="6">
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="5" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="3" builtinId="29"/>
+    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
@@ -247,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,26 +369,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -332,23 +404,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -524,11 +579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:U18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:AA18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:U18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3:AA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,9 +605,10 @@
     <col min="18" max="18" width="3.42578125" customWidth="1"/>
     <col min="19" max="20" width="3.140625" customWidth="1"/>
     <col min="21" max="21" width="3.5703125" customWidth="1"/>
+    <col min="23" max="23" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
@@ -579,8 +635,21 @@
       <c r="S3" s="9"/>
       <c r="T3" s="9"/>
       <c r="U3" s="9"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W3" s="11"/>
+      <c r="X3" s="11">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="11">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="11">
+        <v>3</v>
+      </c>
+      <c r="AA3" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="1">
@@ -637,8 +706,23 @@
       <c r="U4" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -663,8 +747,23 @@
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -689,8 +788,13 @@
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -715,8 +819,17 @@
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -741,8 +854,21 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="W8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -768,7 +894,7 @@
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>6</v>
       </c>
@@ -794,7 +920,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>7</v>
       </c>
@@ -820,7 +946,7 @@
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>8</v>
       </c>
@@ -846,7 +972,7 @@
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>9</v>
       </c>
@@ -872,7 +998,7 @@
       <c r="T13" s="4"/>
       <c r="U13" s="2"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>10</v>
       </c>
@@ -898,7 +1024,7 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>11</v>
       </c>
@@ -924,7 +1050,7 @@
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>12</v>
       </c>
@@ -1014,7 +1140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1026,7 +1152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
